--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>752810.4229293213</v>
+        <v>684376.5094811316</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554238</v>
+        <v>337002.2430554239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099518</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>71.01467844038824</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>30.95184914057959</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -797,16 +797,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
@@ -913,13 +913,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>90.26012311038538</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>136.5586050911492</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>50.46697834767995</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>117.5398956129371</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>97.01986919358308</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1308,46 +1308,46 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>180.7836212062084</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>81.92547811985736</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034786</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.1084405918632</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>266.4288771726141</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>292.4116868811968</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229386</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>118.928345803279</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1785,7 +1785,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>52.10844059186287</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.3138620892177</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>190.2652767853064</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>129.0246247964035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>260.6806496077282</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>78.71433359593196</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>61.61413745349994</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>159.7365432862665</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>197.9240804051654</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883158</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>37.83808333974872</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.56386682245585</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>317.3735290007867</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>257.0719521914899</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>94.65568569260694</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>83.20847710134866</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>290.7717541535848</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>184.5808806410317</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,28 +2952,28 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>44.82579829756118</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>146.061301375297</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>86.29113398934169</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>59.43262708185695</v>
       </c>
       <c r="U34" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>150.4238074522053</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>221.002178698296</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>130.0455752073218</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.546296656423289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>376.184863643924</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>39.28399007890627</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>50.05665370612862</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>235.474518856444</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>18.28928943979415</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>221.002178698296</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>34.1005047385018</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>41.99168824028268</v>
       </c>
       <c r="G44" t="n">
-        <v>191.6216610647218</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>8.787420751036557</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,10 +4418,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>51.29976984439196</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>657.9038335500135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>657.9038335500135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4658,13 +4658,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>826.1191705700815</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.7999090013961</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C8" t="n">
-        <v>274.7999090013961</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D8" t="n">
-        <v>274.7999090013961</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E8" t="n">
-        <v>274.7999090013961</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
         <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
         <v>761.6974622895962</v>
       </c>
       <c r="U8" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="V8" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="W8" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="X8" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="Y8" t="n">
         <v>518.2486856454962</v>
-      </c>
-      <c r="V8" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="W8" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="X8" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>368.5565195871618</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>133.4044113554191</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W9" t="n">
-        <v>133.4044113554191</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>133.4044113554191</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1166.959449965771</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C11" t="n">
-        <v>797.9969330253592</v>
+        <v>980.6066514154686</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>622.3409528087182</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036448</v>
+        <v>236.5527002104739</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2614.396082816348</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2614.396082816348</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V11" t="n">
-        <v>2283.333195472777</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W11" t="n">
-        <v>1930.564540202663</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X11" t="n">
-        <v>1557.098781941583</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y11" t="n">
-        <v>1166.959449965771</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="12">
@@ -5117,49 +5117,49 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614631</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014718</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035062</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.060406649891</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430049</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073965</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196744</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935841</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
         <v>1364.473611002105</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064349</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064349</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064349</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>580.2158906240418</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>433.3259431261314</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>264.3261428644638</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>106.577770296994</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064349</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064349</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064349</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064349</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1717.512263598977</v>
+        <v>1099.292566481064</v>
       </c>
       <c r="C14" t="n">
-        <v>1717.512263598977</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D14" t="n">
-        <v>1717.512263598977</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E14" t="n">
-        <v>1331.724011000733</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>920.7381062111251</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>502.774298109312</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
         <v>2544.691559791253</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304456</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U14" t="n">
-        <v>2048.575150942548</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>1717.512263598977</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W14" t="n">
-        <v>1717.512263598977</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.512263598977</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y14" t="n">
-        <v>1717.512263598977</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="E16" t="n">
-        <v>580.2158906240414</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="F16" t="n">
-        <v>433.3259431261311</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G16" t="n">
-        <v>264.3261428644635</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5777702969936</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5454,34 +5454,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>207.4089578252748</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C17" t="n">
-        <v>207.4089578252748</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4089578252748</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E17" t="n">
         <v>207.4089578252748</v>
@@ -5512,16 +5512,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X17" t="n">
-        <v>936.2491605982761</v>
+        <v>2097.164598010615</v>
       </c>
       <c r="Y17" t="n">
-        <v>546.1098286224644</v>
+        <v>1707.025266034803</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5709,16 +5709,16 @@
         <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>184.2708856551155</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1215.881273373639</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C20" t="n">
-        <v>1215.881273373639</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>1215.881273373639</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.881273373639</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2363.877877781635</v>
       </c>
       <c r="W20" t="n">
-        <v>2366.086203674652</v>
+        <v>2011.109222511521</v>
       </c>
       <c r="X20" t="n">
-        <v>1992.620445413572</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y20" t="n">
-        <v>1602.481113437761</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
         <v>1194.968834417902</v>
@@ -5852,7 +5852,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5876,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018223</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018223</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018223</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W22" t="n">
-        <v>2407.731920981262</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X22" t="n">
-        <v>2179.742370083245</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1328.309493689272</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C23" t="n">
-        <v>959.3469767488607</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D23" t="n">
-        <v>601.0812781421102</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E23" t="n">
-        <v>215.293025543866</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>215.293025543866</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2478.514423990286</v>
+        <v>2047.384933294377</v>
       </c>
       <c r="V23" t="n">
-        <v>2478.514423990286</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W23" t="n">
-        <v>2478.514423990286</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X23" t="n">
-        <v>2105.048665729206</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y23" t="n">
-        <v>1714.909333753394</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
         <v>814.0449459359563</v>
@@ -6065,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064344</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064344</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064344</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E25" t="n">
-        <v>580.2158906240413</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>517.0200655508536</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>743.484820983793</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C26" t="n">
-        <v>374.5223040433813</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D26" t="n">
-        <v>53.94298182036446</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284806</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W26" t="n">
-        <v>1893.689751284806</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X26" t="n">
-        <v>1520.223993023727</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="Y26" t="n">
-        <v>1130.084661047915</v>
+        <v>1268.680947310029</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.4909684781774</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5547855502705</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>432.0692320582251</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>432.0692320582251</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X28" t="n">
-        <v>500.1394333084171</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y28" t="n">
-        <v>500.1394333084171</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.9054987607762</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C29" t="n">
-        <v>53.94298182036446</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D29" t="n">
-        <v>53.94298182036446</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036446</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6475,40 +6475,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2510.703757037383</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2256.941971675474</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>1925.879084331904</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>1573.11042906179</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X29" t="n">
-        <v>1199.64467080071</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y29" t="n">
-        <v>809.505338824898</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="30">
@@ -6539,10 +6539,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6557,10 +6557,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C31" t="n">
-        <v>438.9553738610024</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D31" t="n">
-        <v>438.9553738610024</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E31" t="n">
-        <v>438.9553738610024</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F31" t="n">
-        <v>438.9553738610024</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G31" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6654,19 +6654,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>381.1377017843616</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C32" t="n">
-        <v>381.1377017843616</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D32" t="n">
-        <v>381.1377017843616</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1377017843616</v>
+        <v>1100.104153946941</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2215.17417469906</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>1884.111287355489</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>1531.342632085375</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X32" t="n">
-        <v>1157.876873824295</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y32" t="n">
-        <v>767.7375418484835</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="33">
@@ -6761,19 +6761,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6782,13 +6782,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S34" t="n">
-        <v>2334.714009270569</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T34" t="n">
-        <v>2107.405821939171</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>625.3727659270879</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>625.3727659270879</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>625.3727659270879</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>625.3727659270879</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733127</v>
@@ -6949,40 +6949,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2545.20585116751</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2326.571184139573</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2072.809398777664</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V35" t="n">
-        <v>1741.746511434094</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W35" t="n">
-        <v>1388.97785616398</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X35" t="n">
-        <v>1015.5120979029</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>625.3727659270879</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7019,13 +7019,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7040,19 +7040,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7119,28 +7119,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T37" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U37" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V37" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W37" t="n">
-        <v>290.5651556036578</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X37" t="n">
-        <v>62.5756047056405</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>819.715945170047</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>433.9276925718028</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>433.9276925718028</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2348.677818127306</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
         <v>814.0449459359563</v>
@@ -7253,16 +7253,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7274,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V40" t="n">
-        <v>274.7355609638946</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W40" t="n">
-        <v>274.7355609638946</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X40" t="n">
-        <v>274.7355609638946</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1238.153685885794</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>869.1911689453821</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>869.1911689453821</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>483.4029163471378</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>72.41701155753026</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>72.41701155753026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>72.41701155753026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7444,19 +7444,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V41" t="n">
-        <v>2388.358616186807</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.358616186807</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.892857925727</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1624.753525949915</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>693.6840299251195</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>693.6840299251195</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>466.3758425937212</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>466.3758425937212</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>211.6913543878343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1139.146815977588</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="C44" t="n">
-        <v>1139.146815977588</v>
+        <v>781.8192470984684</v>
       </c>
       <c r="D44" t="n">
-        <v>1139.146815977588</v>
+        <v>423.5535484917179</v>
       </c>
       <c r="E44" t="n">
-        <v>1139.146815977588</v>
+        <v>423.5535484917179</v>
       </c>
       <c r="F44" t="n">
-        <v>728.1609111879809</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7666,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278602</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.885988017522</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y44" t="n">
-        <v>1525.74665604171</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7724,46 +7724,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>290.8087152951864</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W46" t="n">
-        <v>290.8087152951864</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81916439716906</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.81916439716906</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270186</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951784</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747164</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719081</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,7 +10667,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>344.2880590747468</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>58.44478371083549</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22685,16 +22685,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>40.41943799383367</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
@@ -22801,13 +22801,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>142.5404640390399</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.12409068615514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>172.6288712164514</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23117,7 +23117,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>108.4014864680378</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>154.6751139673365</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23196,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>226.0924245355031</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>134.5228422378004</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>82.85718120047503</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
@@ -23475,7 +23475,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>192.4108057479593</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>98.84401459839341</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>31.51108588316038</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481168</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.49270221965227</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.85718120047535</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853699</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491429</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801578</v>
@@ -23706,7 +23706,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.41997957426287</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>179.4658238931627</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>61.5316190581546</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>146.1953961339833</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24025,19 +24025,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>249.0379248742029</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>163.4209680045843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>254.0476267345284</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>141.9938968421886</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>82.8571812004754</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>37.30951261989628</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>112.6591484869791</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>53.95978732560542</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>84.10132515770225</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>91.96208750989581</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>31.86743971662608</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>122.4840039614897</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>260.8147443664144</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>164.9330335189476</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>165.6024783762273</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>23.99190535676621</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>30.22198880999329</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25359,10 +25359,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>95.66408018171532</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.0383566956715</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>37.59930637687103</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>288.4682683912287</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>174.9784517519556</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>51.04847948014702</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>133.6420268050671</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>30.22198880999329</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25803,13 +25803,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>112.564687241656</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25845,10 +25845,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>96.2516047562942</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>364.8843575014288</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1625089560731</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>158.5223815080143</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>89.80115265030477</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457001.3944062364</v>
+        <v>457001.3944062362</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457001.394406236</v>
+        <v>457001.3944062362</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789569.9565778477</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778476</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789569.9565778475</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789569.9565778474</v>
+        <v>789569.9565778475</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789569.9565778476</v>
+        <v>789569.9565778474</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126063</v>
       </c>
       <c r="N2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429965</v>
+        <v>432846.1740429962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="J4" t="n">
         <v>9371.018034361483</v>
@@ -26453,13 +26453,13 @@
         <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
+        <v>9371.018034361481</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="P4" t="n">
         <v>9371.018034361485</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9371.018034361485</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4669.27333958586</v>
+        <v>-16887.28395962635</v>
       </c>
       <c r="C6" t="n">
-        <v>76100.15819196191</v>
+        <v>63882.14757192141</v>
       </c>
       <c r="D6" t="n">
-        <v>76100.15819196191</v>
+        <v>63882.14757192138</v>
       </c>
       <c r="E6" t="n">
-        <v>-260126.5821281613</v>
+        <v>-266194.9958739802</v>
       </c>
       <c r="F6" t="n">
-        <v>172719.5919148353</v>
+        <v>166651.178169016</v>
       </c>
       <c r="G6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="H6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="I6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="J6" t="n">
-        <v>109659.649315729</v>
+        <v>103591.2355699098</v>
       </c>
       <c r="K6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.178169016</v>
       </c>
       <c r="L6" t="n">
-        <v>172719.5919148353</v>
+        <v>166651.178169016</v>
       </c>
       <c r="M6" t="n">
-        <v>64746.23124077698</v>
+        <v>58677.81749495795</v>
       </c>
       <c r="N6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
       <c r="O6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690161</v>
       </c>
       <c r="P6" t="n">
-        <v>172719.5919148352</v>
+        <v>166651.1781690159</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170867</v>
@@ -26755,13 +26755,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170867</v>
@@ -26776,10 +26776,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26798,25 +26798,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768969</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768969</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768969</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32010,7 +32010,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
         <v>255.8615389119866</v>
@@ -32019,19 +32019,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479578</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32189,7 +32189,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34786,13 +34786,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35412,25 +35412,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.58174042459</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770693</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35743,10 +35743,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K38" t="n">
         <v>297.223041434342</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
